--- a/resources/template/imports/Student_Import_Template.xlsx
+++ b/resources/template/imports/Student_Import_Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\school.com\resources\template\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6B269D-0D07-4F33-9880-493AC0132CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D9F9EC8-4F28-4EAC-99BC-BD25400413A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3888" yWindow="984" windowWidth="17268" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet" sheetId="1" r:id="rId1"/>
@@ -33,22 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
-  <si>
-    <r>
-      <t>Lớp</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>*</t>
-    </r>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <r>
       <t>Mã học sinh</t>
@@ -498,10 +483,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -510,30 +495,27 @@
     <col min="2" max="2" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.77734375" style="2" customWidth="1"/>
-    <col min="5" max="6" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C2" s="1"/>
     </row>
   </sheetData>
